--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Egf-Erbb4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Egf-Erbb4.xlsx
@@ -528,22 +528,22 @@
         <v>22</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.06368266666666667</v>
+        <v>0.041452</v>
       </c>
       <c r="H2">
-        <v>0.191048</v>
+        <v>0.124356</v>
       </c>
       <c r="I2">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="J2">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,16 +564,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.0004044061608888889</v>
+        <v>0.0002632340173333333</v>
       </c>
       <c r="R2">
-        <v>0.003639655448</v>
+        <v>0.002369106156</v>
       </c>
       <c r="S2">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
       <c r="T2">
-        <v>0.07976548992723122</v>
+        <v>0.05439747478414846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>1.189831</v>
       </c>
       <c r="I3">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143857</v>
       </c>
       <c r="J3">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143856</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -632,10 +632,10 @@
         <v>0.022667470381</v>
       </c>
       <c r="S3">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143857</v>
       </c>
       <c r="T3">
-        <v>0.4967728144006085</v>
+        <v>0.5204718857143856</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3380806666666667</v>
+        <v>0.3239583333333333</v>
       </c>
       <c r="H4">
-        <v>1.014242</v>
+        <v>0.971875</v>
       </c>
       <c r="I4">
-        <v>0.4234616956721602</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="J4">
-        <v>0.4234616956721601</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -688,16 +688,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.002146924926888889</v>
+        <v>0.002057243402777778</v>
       </c>
       <c r="R4">
-        <v>0.019322324342</v>
+        <v>0.018515190625</v>
       </c>
       <c r="S4">
-        <v>0.4234616956721602</v>
+        <v>0.4251306395014658</v>
       </c>
       <c r="T4">
-        <v>0.4234616956721601</v>
+        <v>0.4251306395014658</v>
       </c>
     </row>
   </sheetData>
